--- a/テスト仕様書/テスト仕様書(三井)ユーザ登録.xlsx
+++ b/テスト仕様書/テスト仕様書(三井)ユーザ登録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10420" windowHeight="3170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="3370" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザを登録する" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="175">
   <si>
     <t>ユースケース名</t>
     <rPh sb="6" eb="7">
@@ -1803,6 +1803,122 @@
     <t>パスワードと確認用パスワードが不一致です</t>
     <rPh sb="17" eb="18">
       <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>郵便番号から正常に住所を取得できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ユウビン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・郵便番号フォームに「323-0000」と入力したあと、「住所検索」をクリック</t>
+    <rPh sb="1" eb="5">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・住所に「栃木県小山市」と表示が出ること</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トチギケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オヤマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+異常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>異常な郵便番号は住所を取得できないと表示がされるか</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・郵便番号フォームに「000-0000」と入力したあと、「住所検索」をクリック</t>
+    <rPh sb="1" eb="5">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アラートが出ること</t>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2031,9 +2147,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2043,6 +2156,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,9 +2190,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2358,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2410,1428 +2526,1464 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>44026</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="13" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>44026</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="13" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="13" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>44026</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="13" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="13" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="13" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <v>44026</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="13" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="13" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="13" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="13" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>44026</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="13" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="13" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="13" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="13" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="23">
         <v>44026</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="13" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="13" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="13" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="13" customHeight="1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>44026</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="13" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="13" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" ht="13" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="13" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>44026</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" ht="13" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" ht="13" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" ht="13" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" ht="13" customHeight="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="23">
         <v>44026</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" ht="13" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" ht="13" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" ht="13" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" ht="13" customHeight="1">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="23">
         <v>44026</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" ht="13" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" ht="13" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" ht="13" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" ht="13" customHeight="1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="23">
         <v>44026</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="1:9" ht="13" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="1:9" ht="13" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" ht="13" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:9" ht="13" customHeight="1">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="23">
         <v>44026</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:9" ht="13" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" spans="1:9" ht="13" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" spans="1:9" ht="13" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" ht="13" customHeight="1">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="23">
         <v>44026</v>
       </c>
-      <c r="I65" s="23" t="s">
+      <c r="I65" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
     </row>
     <row r="67" spans="1:9" ht="13" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
     </row>
     <row r="68" spans="1:9" ht="13" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="1:9" ht="13" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:9" ht="13" customHeight="1">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="23">
         <v>44026</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:9" ht="13" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" spans="1:9" ht="13" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
     </row>
     <row r="75" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="23">
         <v>44026</v>
       </c>
-      <c r="I75" s="23" t="s">
+      <c r="I75" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
     </row>
     <row r="78" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
     </row>
     <row r="79" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="23">
         <v>44026</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
     </row>
     <row r="84" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
     </row>
     <row r="85" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="G85" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="23">
         <v>44026</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
     </row>
     <row r="87" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
     </row>
     <row r="88" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
     </row>
     <row r="89" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
     </row>
     <row r="90" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="G90" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H90" s="22">
+      <c r="H90" s="23">
         <v>44026</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
     </row>
     <row r="92" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
     </row>
     <row r="93" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-    </row>
-    <row r="95" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" customFormat="1" ht="13" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+    </row>
+    <row r="95" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A95" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H95" s="23">
+        <v>44026</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+    </row>
+    <row r="97" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+    </row>
+    <row r="98" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+    </row>
+    <row r="99" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+    </row>
+    <row r="100" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H100" s="23">
+        <v>44026</v>
+      </c>
+      <c r="I100" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A101" s="10"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+    </row>
+    <row r="102" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A102" s="10"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+    </row>
+    <row r="103" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A103" s="10"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+    </row>
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="13" customHeight="1">
+      <c r="A104" s="10"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
     </row>
     <row r="105" spans="1:9" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="1"/>
@@ -4004,145 +4156,25 @@
     <row r="223" spans="1:9" customFormat="1" ht="13" customHeight="1"/>
     <row r="224" spans="1:9" customFormat="1" ht="13" customHeight="1"/>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="H80:H84"/>
-    <mergeCell ref="I80:I84"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="H50:H54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="G85:G89"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="H55:H59"/>
-    <mergeCell ref="I55:I59"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="G90:G94"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="I90:I94"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="H70:H74"/>
-    <mergeCell ref="I70:I74"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="I10:I14"/>
+  <mergeCells count="180">
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="G100:G104"/>
+    <mergeCell ref="H100:H104"/>
+    <mergeCell ref="I100:I104"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="I95:I99"/>
     <mergeCell ref="F35:F39"/>
     <mergeCell ref="F50:F54"/>
     <mergeCell ref="A35:A39"/>
@@ -4167,6 +4199,144 @@
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="E45:E49"/>
     <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="H70:H74"/>
+    <mergeCell ref="I70:I74"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="G85:G89"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="I80:I84"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
